--- a/ZZZCópia de sd_checklist_meta1_2018.xlsx
+++ b/ZZZCópia de sd_checklist_meta1_2018.xlsx
@@ -451,7 +451,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -486,6 +486,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="155" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="155"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="Correcto" xfId="155" builtinId="26"/>
@@ -989,7 +990,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1102,6 +1103,7 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
@@ -1113,6 +1115,7 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1136,6 +1139,7 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1159,6 +1163,7 @@
       <c r="C15" s="5">
         <v>3</v>
       </c>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -1170,6 +1175,7 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -1264,6 +1270,7 @@
       <c r="C25" s="5">
         <v>4</v>
       </c>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
@@ -1286,6 +1293,7 @@
       <c r="C27" s="5">
         <v>4</v>
       </c>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
@@ -1297,6 +1305,7 @@
       <c r="C28" s="5">
         <v>4</v>
       </c>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
@@ -1343,8 +1352,9 @@
       <c r="C32" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1354,8 +1364,9 @@
       <c r="C33" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>4</v>
       </c>
@@ -1365,8 +1376,9 @@
       <c r="C34" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>4</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>4</v>
       </c>
@@ -1387,8 +1399,9 @@
       <c r="C36" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <f>SUM(A38:A42)</f>
         <v>10</v>
@@ -1401,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -1412,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -1423,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -1434,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>2</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2</v>
       </c>
@@ -1456,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1465,27 +1478,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>9</v>
       </c>

--- a/ZZZCópia de sd_checklist_meta1_2018.xlsx
+++ b/ZZZCópia de sd_checklist_meta1_2018.xlsx
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,8 +264,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +290,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -293,7 +305,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="156">
+  <cellStyleXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -450,8 +462,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -487,8 +500,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="155"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="156" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="156">
+  <cellStyles count="157">
     <cellStyle name="Correcto" xfId="155" builtinId="26"/>
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
@@ -644,6 +660,7 @@
     <cellStyle name="Hiperligação Visitada" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperligação Visitada" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperligação Visitada" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Neutro" xfId="156" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -987,10 +1004,10 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1092,6 +1109,7 @@
       <c r="C9" s="5">
         <v>3</v>
       </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1199,6 +1217,7 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
@@ -1210,6 +1229,7 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5">

--- a/ZZZCópia de sd_checklist_meta1_2018.xlsx
+++ b/ZZZCópia de sd_checklist_meta1_2018.xlsx
@@ -1004,10 +1004,10 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1074,7 +1074,7 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -1086,7 +1086,7 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -1109,7 +1109,7 @@
       <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1121,7 +1121,7 @@
       <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
@@ -1133,7 +1133,7 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1145,7 +1145,7 @@
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
@@ -1157,7 +1157,7 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1169,7 +1169,7 @@
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
@@ -1181,7 +1181,7 @@
       <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
@@ -1193,7 +1193,7 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
@@ -1205,7 +1205,7 @@
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5">

--- a/ZZZCópia de sd_checklist_meta1_2018.xlsx
+++ b/ZZZCópia de sd_checklist_meta1_2018.xlsx
@@ -1007,7 +1007,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1074,7 +1074,7 @@
       <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
@@ -1086,7 +1086,7 @@
       <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
@@ -1337,6 +1337,7 @@
       <c r="C29" s="5">
         <v>4</v>
       </c>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
@@ -1348,6 +1349,7 @@
       <c r="C30" s="5">
         <v>4</v>
       </c>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">

--- a/ZZZCópia de sd_checklist_meta1_2018.xlsx
+++ b/ZZZCópia de sd_checklist_meta1_2018.xlsx
@@ -1004,10 +1004,10 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1457,6 +1457,7 @@
       <c r="C39" s="5">
         <v>2</v>
       </c>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
@@ -1490,6 +1491,7 @@
       <c r="C42" s="5">
         <v>2</v>
       </c>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">

--- a/ZZZCópia de sd_checklist_meta1_2018.xlsx
+++ b/ZZZCópia de sd_checklist_meta1_2018.xlsx
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,8 +271,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +302,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -305,7 +317,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="157">
+  <cellStyleXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -463,8 +475,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -503,8 +516,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="156" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="157" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="157">
+  <cellStyles count="158">
     <cellStyle name="Correcto" xfId="155" builtinId="26"/>
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
@@ -660,6 +676,7 @@
     <cellStyle name="Hiperligação Visitada" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperligação Visitada" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperligação Visitada" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Incorrecto" xfId="157" builtinId="27"/>
     <cellStyle name="Neutro" xfId="156" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1004,10 +1021,10 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1098,6 +1115,7 @@
       <c r="C8" s="5">
         <v>3</v>
       </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
@@ -1109,7 +1127,7 @@
       <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
@@ -1133,7 +1151,7 @@
       <c r="C11" s="5">
         <v>3</v>
       </c>
-      <c r="D11"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
@@ -1145,7 +1163,7 @@
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
@@ -1157,7 +1175,7 @@
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
@@ -1169,7 +1187,7 @@
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
@@ -1205,7 +1223,7 @@
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
@@ -1469,6 +1487,7 @@
       <c r="C40" s="5">
         <v>2</v>
       </c>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
@@ -1506,21 +1525,25 @@
       <c r="B44" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
